--- a/data/hc.xlsx
+++ b/data/hc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\streamlit_proJ\streamlit_LM_ECO2OD_Health_center\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEB343B-2462-4F3B-AED2-EAAB0247394E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866C8805-DA77-42F8-89C2-040BC668F789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -582,7 +582,6 @@
         <v>90</v>
       </c>
       <c r="J2" s="9">
-        <f t="shared" ref="J2:J20" si="0">(1035+1776)/266.4</f>
         <v>10.551801801801803</v>
       </c>
       <c r="K2" s="7">
@@ -642,7 +641,6 @@
         <v>90</v>
       </c>
       <c r="J3" s="9">
-        <f t="shared" si="0"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K3" s="7">
@@ -702,7 +700,6 @@
         <v>90</v>
       </c>
       <c r="J4" s="9">
-        <f t="shared" si="0"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K4" s="7">
@@ -762,7 +759,6 @@
         <v>90</v>
       </c>
       <c r="J5" s="9">
-        <f t="shared" si="0"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K5" s="7">
@@ -822,7 +818,6 @@
         <v>90</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" si="0"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K6" s="7">
@@ -882,7 +877,6 @@
         <v>90</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" si="0"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K7" s="7">
@@ -942,7 +936,6 @@
         <v>90</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" si="0"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K8" s="7">
@@ -1002,7 +995,6 @@
         <v>90</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" si="0"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K9" s="7">
@@ -1062,7 +1054,6 @@
         <v>90</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="0"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K10" s="7">
@@ -1122,7 +1113,6 @@
         <v>90</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="0"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K11" s="7">
@@ -1182,7 +1172,6 @@
         <v>90</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="0"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K12" s="7">
@@ -1242,7 +1231,6 @@
         <v>90</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="0"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K13" s="7">
@@ -1302,7 +1290,6 @@
         <v>90</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" si="0"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K14" s="7">
@@ -1362,7 +1349,6 @@
         <v>90</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" si="0"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K15" s="7">
@@ -1422,7 +1408,6 @@
         <v>90</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" si="0"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K16" s="7">
@@ -1482,7 +1467,6 @@
         <v>90</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="0"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K17" s="7">
@@ -1542,7 +1526,6 @@
         <v>90</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="0"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K18" s="7">
@@ -1602,7 +1585,6 @@
         <v>95</v>
       </c>
       <c r="J19" s="9">
-        <f t="shared" si="0"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K19" s="7">
@@ -1662,7 +1644,6 @@
         <v>100</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="0"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K20" s="7">
@@ -1722,7 +1703,6 @@
         <v>90</v>
       </c>
       <c r="J21" s="9">
-        <f>(955+1310)/266.4</f>
         <v>8.5022522522522532</v>
       </c>
       <c r="K21" s="7">
@@ -1747,7 +1727,7 @@
         <v>6.8</v>
       </c>
       <c r="R21" s="8">
-        <v>25.9</v>
+        <v>20.8</v>
       </c>
       <c r="S21" s="7">
         <v>0</v>
@@ -1782,7 +1762,6 @@
         <v>90</v>
       </c>
       <c r="J22" s="9">
-        <f>(800+932)/266.4</f>
         <v>6.5015015015015019</v>
       </c>
       <c r="K22" s="7">
@@ -1807,7 +1786,7 @@
         <v>6.8</v>
       </c>
       <c r="R22" s="8">
-        <v>25.9</v>
+        <v>15.9</v>
       </c>
       <c r="S22" s="7">
         <v>0</v>
@@ -1842,7 +1821,6 @@
         <v>90</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" ref="J23:J41" si="1">(1035+1776)/266.4</f>
         <v>10.551801801801803</v>
       </c>
       <c r="K23" s="7">
@@ -1902,7 +1880,6 @@
         <v>90</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="1"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K24" s="7">
@@ -1962,7 +1939,6 @@
         <v>90</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="1"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K25" s="7">
@@ -2022,7 +1998,6 @@
         <v>90</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" si="1"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K26" s="7">
@@ -2082,7 +2057,6 @@
         <v>90</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" si="1"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K27" s="7">
@@ -2142,7 +2116,6 @@
         <v>90</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" si="1"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K28" s="7">
@@ -2202,7 +2175,6 @@
         <v>90</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" si="1"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K29" s="7">
@@ -2262,7 +2234,6 @@
         <v>90</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" si="1"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K30" s="7">
@@ -2322,7 +2293,6 @@
         <v>90</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" si="1"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K31" s="7">
@@ -2382,7 +2352,6 @@
         <v>90</v>
       </c>
       <c r="J32" s="9">
-        <f t="shared" si="1"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K32" s="7">
@@ -2442,7 +2411,6 @@
         <v>90</v>
       </c>
       <c r="J33" s="9">
-        <f t="shared" si="1"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K33" s="7">
@@ -2502,7 +2470,6 @@
         <v>90</v>
       </c>
       <c r="J34" s="9">
-        <f t="shared" si="1"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K34" s="7">
@@ -2562,7 +2529,6 @@
         <v>90</v>
       </c>
       <c r="J35" s="9">
-        <f t="shared" si="1"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K35" s="7">
@@ -2622,7 +2588,6 @@
         <v>90</v>
       </c>
       <c r="J36" s="9">
-        <f t="shared" si="1"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K36" s="7">
@@ -2682,7 +2647,6 @@
         <v>90</v>
       </c>
       <c r="J37" s="9">
-        <f t="shared" si="1"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K37" s="7">
@@ -2742,7 +2706,6 @@
         <v>90</v>
       </c>
       <c r="J38" s="9">
-        <f t="shared" si="1"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K38" s="7">
@@ -2802,7 +2765,6 @@
         <v>90</v>
       </c>
       <c r="J39" s="9">
-        <f t="shared" si="1"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K39" s="7">
@@ -2862,7 +2824,6 @@
         <v>95</v>
       </c>
       <c r="J40" s="9">
-        <f t="shared" si="1"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K40" s="7">
@@ -2922,7 +2883,6 @@
         <v>100</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" si="1"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K41" s="7">
@@ -2982,7 +2942,6 @@
         <v>90</v>
       </c>
       <c r="J42" s="9">
-        <f>(955+1310)/266.4</f>
         <v>8.5022522522522532</v>
       </c>
       <c r="K42" s="7">
@@ -3007,7 +2966,7 @@
         <v>6.8</v>
       </c>
       <c r="R42" s="8">
-        <v>25.9</v>
+        <v>20.8</v>
       </c>
       <c r="S42" s="7">
         <v>0</v>
@@ -3042,7 +3001,6 @@
         <v>90</v>
       </c>
       <c r="J43" s="9">
-        <f>(800+932)/266.4</f>
         <v>6.5015015015015019</v>
       </c>
       <c r="K43" s="7">
@@ -3067,7 +3025,7 @@
         <v>6.8</v>
       </c>
       <c r="R43" s="8">
-        <v>25.9</v>
+        <v>15.9</v>
       </c>
       <c r="S43" s="7">
         <v>0</v>
@@ -3102,7 +3060,6 @@
         <v>90</v>
       </c>
       <c r="J44" s="9">
-        <f t="shared" ref="J44:J62" si="2">(1035+1776)/266.4</f>
         <v>10.551801801801803</v>
       </c>
       <c r="K44" s="7">
@@ -3162,7 +3119,6 @@
         <v>90</v>
       </c>
       <c r="J45" s="9">
-        <f t="shared" si="2"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K45" s="7">
@@ -3222,7 +3178,6 @@
         <v>90</v>
       </c>
       <c r="J46" s="9">
-        <f t="shared" si="2"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K46" s="7">
@@ -3282,7 +3237,6 @@
         <v>90</v>
       </c>
       <c r="J47" s="9">
-        <f t="shared" si="2"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K47" s="7">
@@ -3342,7 +3296,6 @@
         <v>90</v>
       </c>
       <c r="J48" s="9">
-        <f t="shared" si="2"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K48" s="7">
@@ -3402,7 +3355,6 @@
         <v>90</v>
       </c>
       <c r="J49" s="9">
-        <f t="shared" si="2"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K49" s="7">
@@ -3462,7 +3414,6 @@
         <v>90</v>
       </c>
       <c r="J50" s="9">
-        <f t="shared" si="2"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K50" s="7">
@@ -3522,7 +3473,6 @@
         <v>90</v>
       </c>
       <c r="J51" s="9">
-        <f t="shared" si="2"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K51" s="7">
@@ -3582,7 +3532,6 @@
         <v>90</v>
       </c>
       <c r="J52" s="9">
-        <f t="shared" si="2"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K52" s="7">
@@ -3642,7 +3591,6 @@
         <v>90</v>
       </c>
       <c r="J53" s="9">
-        <f t="shared" si="2"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K53" s="7">
@@ -3702,7 +3650,6 @@
         <v>90</v>
       </c>
       <c r="J54" s="9">
-        <f t="shared" si="2"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K54" s="7">
@@ -3762,7 +3709,6 @@
         <v>90</v>
       </c>
       <c r="J55" s="9">
-        <f t="shared" si="2"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K55" s="7">
@@ -3822,7 +3768,6 @@
         <v>90</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="2"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K56" s="7">
@@ -3882,7 +3827,6 @@
         <v>90</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" si="2"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K57" s="7">
@@ -3942,7 +3886,6 @@
         <v>90</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" si="2"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K58" s="7">
@@ -4002,7 +3945,6 @@
         <v>90</v>
       </c>
       <c r="J59" s="9">
-        <f t="shared" si="2"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K59" s="7">
@@ -4062,7 +4004,6 @@
         <v>90</v>
       </c>
       <c r="J60" s="9">
-        <f t="shared" si="2"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K60" s="7">
@@ -4122,7 +4063,6 @@
         <v>95</v>
       </c>
       <c r="J61" s="9">
-        <f t="shared" si="2"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K61" s="7">
@@ -4182,7 +4122,6 @@
         <v>100</v>
       </c>
       <c r="J62" s="9">
-        <f t="shared" si="2"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K62" s="7">
@@ -4242,7 +4181,6 @@
         <v>90</v>
       </c>
       <c r="J63" s="9">
-        <f>(955+1310)/266.4</f>
         <v>8.5022522522522532</v>
       </c>
       <c r="K63" s="7">
@@ -4267,7 +4205,7 @@
         <v>6.8</v>
       </c>
       <c r="R63" s="8">
-        <v>25.9</v>
+        <v>20.8</v>
       </c>
       <c r="S63" s="7">
         <v>0</v>
@@ -4302,7 +4240,6 @@
         <v>90</v>
       </c>
       <c r="J64" s="9">
-        <f>(800+932)/266.4</f>
         <v>6.5015015015015019</v>
       </c>
       <c r="K64" s="7">
@@ -4327,7 +4264,7 @@
         <v>6.8</v>
       </c>
       <c r="R64" s="8">
-        <v>25.9</v>
+        <v>15.9</v>
       </c>
       <c r="S64" s="7">
         <v>0</v>
@@ -4362,7 +4299,6 @@
         <v>90</v>
       </c>
       <c r="J65" s="9">
-        <f t="shared" ref="J65:J83" si="3">(1035+1776)/266.4</f>
         <v>10.551801801801803</v>
       </c>
       <c r="K65" s="7">
@@ -4422,7 +4358,6 @@
         <v>90</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" si="3"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K66" s="7">
@@ -4482,7 +4417,6 @@
         <v>90</v>
       </c>
       <c r="J67" s="9">
-        <f t="shared" si="3"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K67" s="7">
@@ -4542,7 +4476,6 @@
         <v>90</v>
       </c>
       <c r="J68" s="9">
-        <f t="shared" si="3"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K68" s="7">
@@ -4602,7 +4535,6 @@
         <v>90</v>
       </c>
       <c r="J69" s="9">
-        <f t="shared" si="3"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K69" s="7">
@@ -4662,7 +4594,6 @@
         <v>90</v>
       </c>
       <c r="J70" s="9">
-        <f t="shared" si="3"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K70" s="7">
@@ -4722,7 +4653,6 @@
         <v>90</v>
       </c>
       <c r="J71" s="9">
-        <f t="shared" si="3"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K71" s="7">
@@ -4782,7 +4712,6 @@
         <v>90</v>
       </c>
       <c r="J72" s="9">
-        <f t="shared" si="3"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K72" s="7">
@@ -4842,7 +4771,6 @@
         <v>90</v>
       </c>
       <c r="J73" s="9">
-        <f t="shared" si="3"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K73" s="7">
@@ -4902,7 +4830,6 @@
         <v>90</v>
       </c>
       <c r="J74" s="9">
-        <f t="shared" si="3"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K74" s="7">
@@ -4962,7 +4889,6 @@
         <v>90</v>
       </c>
       <c r="J75" s="9">
-        <f t="shared" si="3"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K75" s="7">
@@ -5022,7 +4948,6 @@
         <v>90</v>
       </c>
       <c r="J76" s="9">
-        <f t="shared" si="3"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K76" s="7">
@@ -5082,7 +5007,6 @@
         <v>90</v>
       </c>
       <c r="J77" s="9">
-        <f t="shared" si="3"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K77" s="7">
@@ -5142,7 +5066,6 @@
         <v>90</v>
       </c>
       <c r="J78" s="9">
-        <f t="shared" si="3"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K78" s="7">
@@ -5202,7 +5125,6 @@
         <v>90</v>
       </c>
       <c r="J79" s="9">
-        <f t="shared" si="3"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K79" s="7">
@@ -5262,7 +5184,6 @@
         <v>90</v>
       </c>
       <c r="J80" s="9">
-        <f t="shared" si="3"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K80" s="7">
@@ -5322,7 +5243,6 @@
         <v>90</v>
       </c>
       <c r="J81" s="9">
-        <f t="shared" si="3"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K81" s="7">
@@ -5382,7 +5302,6 @@
         <v>95</v>
       </c>
       <c r="J82" s="9">
-        <f t="shared" si="3"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K82" s="7">
@@ -5442,7 +5361,6 @@
         <v>100</v>
       </c>
       <c r="J83" s="9">
-        <f t="shared" si="3"/>
         <v>10.551801801801803</v>
       </c>
       <c r="K83" s="7">
@@ -5502,7 +5420,6 @@
         <v>90</v>
       </c>
       <c r="J84" s="9">
-        <f>(955+1310)/266.4</f>
         <v>8.5022522522522532</v>
       </c>
       <c r="K84" s="7">
@@ -5527,7 +5444,7 @@
         <v>6.8</v>
       </c>
       <c r="R84" s="8">
-        <v>25.9</v>
+        <v>20.8</v>
       </c>
       <c r="S84" s="7">
         <v>0</v>
@@ -5562,7 +5479,6 @@
         <v>90</v>
       </c>
       <c r="J85" s="9">
-        <f>(800+932)/266.4</f>
         <v>6.5015015015015019</v>
       </c>
       <c r="K85" s="7">
@@ -5587,7 +5503,7 @@
         <v>6.8</v>
       </c>
       <c r="R85" s="8">
-        <v>25.9</v>
+        <v>15.9</v>
       </c>
       <c r="S85" s="7">
         <v>0</v>
